--- a/instance/zyjk/EHR/controlRule/config/diabetesVisitRule2.3.1.xlsx
+++ b/instance/zyjk/EHR/controlRule/config/diabetesVisitRule2.3.1.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1076">
   <si>
     <t>RuleId</t>
   </si>
@@ -3866,6 +3866,14 @@
   </si>
   <si>
     <t>预混赖脯胰岛素</t>
+  </si>
+  <si>
+    <t>Rule_PO.c5(Rule_PO.l_ruleId[0][i], idCardNo,"tb_dc_dm_visit","targetStapleFood")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_PO.c5(Rule_PO.l_ruleId[0][i], idCardNo,"tb_dc_dm_visit","visitType")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4496,10 +4504,10 @@
   <dimension ref="A1:W191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U49" sqref="U49"/>
+      <selection pane="bottomRight" activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7572,7 +7580,9 @@
       <c r="R59" s="24"/>
       <c r="S59" s="24"/>
       <c r="T59" s="18"/>
-      <c r="U59" s="40"/>
+      <c r="U59" s="40" t="s">
+        <v>1074</v>
+      </c>
       <c r="V59" s="24"/>
       <c r="W59" s="24"/>
     </row>
@@ -8137,7 +8147,9 @@
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
       <c r="T72" s="18"/>
-      <c r="U72" s="40"/>
+      <c r="U72" s="40" t="s">
+        <v>1075</v>
+      </c>
       <c r="V72" s="24"/>
       <c r="W72" s="24"/>
     </row>
@@ -13668,8 +13680,8 @@
   <autoFilter ref="A1:W191"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
